--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>tipoDichiarazione</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.sceltaCognome,in,(7,8,9,10)}</t>
+  </si>
+  <si>
     <t>Nuovo cognome</t>
   </si>
   <si>
@@ -116,18 +125,30 @@
     <t>testoLibero</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.sceltaCognome,in,(6,7,9,10)}</t>
+  </si>
+  <si>
     <t>Nuovo nome</t>
   </si>
   <si>
     <t>nuovoNome</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.sceltaCognome,in,(6,8,9,10)}</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.sceltaCognome,in,(6,7,8,10)}</t>
+  </si>
+  <si>
     <t>Cognome aggiunto</t>
   </si>
   <si>
     <t>cognomeAggiunto</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.sceltaCognome,in,(6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Nome aggiunto</t>
   </si>
   <si>
@@ -398,7 +419,13 @@
     <t>evento.eventoCollegato</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Atto Nascita Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -550,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -562,6 +589,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="51.76171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -583,65 +611,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -663,2745 +703,3159 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,31 +32,34 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto Prefettizio</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.3</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto Prefettizio</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.3</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -704,3158 +707,3158 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -107,7 +107,7 @@
     <t>tipoDichiarazione</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.sceltaCognome,in,(7,8,9,10)}</t>
+    <t>evento.trascrizioneNascita.sceltaCognome,in,(7,8,9,10)</t>
   </si>
   <si>
     <t>Nuovo cognome</t>
@@ -128,7 +128,7 @@
     <t>testoLibero</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.sceltaCognome,in,(6,7,9,10)}</t>
+    <t>evento.trascrizioneNascita.sceltaCognome,in,(6,7,9,10)</t>
   </si>
   <si>
     <t>Nuovo nome</t>
@@ -137,10 +137,10 @@
     <t>nuovoNome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.sceltaCognome,in,(6,8,9,10)}</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.sceltaCognome,in,(6,7,8,10)}</t>
+    <t>evento.trascrizioneNascita.sceltaCognome,in,(6,8,9,10)</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.sceltaCognome,in,(6,7,8,10)</t>
   </si>
   <si>
     <t>Cognome aggiunto</t>
@@ -149,7 +149,7 @@
     <t>cognomeAggiunto</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.sceltaCognome,in,(6,7,8,9)}</t>
+    <t>evento.trascrizioneNascita.sceltaCognome,in,(6,7,8,9)</t>
   </si>
   <si>
     <t>Nome aggiunto</t>
@@ -422,13 +422,13 @@
     <t>evento.eventoCollegato</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Atto Nascita Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -592,7 +592,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="51.76171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2144,7 +2144,7 @@
         <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>112</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -230,6 +230,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -344,6 +350,9 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Atto nascita intestatario</t>
   </si>
   <si>
@@ -398,22 +407,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Nascita Coniuge</t>
@@ -580,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1546,7 +1555,7 @@
         <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>50</v>
@@ -1555,7 +1564,7 @@
         <v>73</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>20</v>
@@ -1638,7 +1647,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>50</v>
@@ -1670,7 +1679,7 @@
         <v>83</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>20</v>
@@ -1693,7 +1702,7 @@
         <v>85</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>20</v>
@@ -1716,7 +1725,7 @@
         <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>20</v>
@@ -1747,22 +1756,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>20</v>
@@ -1770,16 +1779,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>95</v>
@@ -1793,7 +1802,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>96</v>
@@ -1802,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>97</v>
@@ -1816,7 +1825,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>98</v>
@@ -1825,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>99</v>
@@ -1839,7 +1848,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>100</v>
@@ -1848,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>101</v>
@@ -1862,16 +1871,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>103</v>
@@ -1885,7 +1894,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>104</v>
@@ -1894,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>105</v>
@@ -1908,7 +1917,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>106</v>
@@ -1917,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>107</v>
@@ -1931,7 +1940,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>108</v>
@@ -1940,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>109</v>
@@ -1954,19 +1963,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1986,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2009,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2032,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2055,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2078,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2101,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2115,7 +2124,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>125</v>
@@ -2124,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>126</v>
@@ -2138,19 +2147,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2161,7 +2170,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>128</v>
@@ -2170,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>129</v>
@@ -2184,7 +2193,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>130</v>
@@ -2193,10 +2202,10 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2216,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2230,168 +2239,168 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>125</v>
@@ -2400,7 +2409,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>126</v>
@@ -2409,12 +2418,12 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>127</v>
@@ -2423,21 +2432,21 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>128</v>
@@ -2446,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>129</v>
@@ -2455,53 +2464,53 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -2509,22 +2518,22 @@
         <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
@@ -2532,142 +2541,142 @@
         <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>125</v>
@@ -2676,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>126</v>
@@ -2685,12 +2694,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>127</v>
@@ -2699,21 +2708,21 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>128</v>
@@ -2722,7 +2731,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>129</v>
@@ -2731,357 +2740,357 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>150</v>
@@ -3090,21 +3099,21 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>151</v>
@@ -3113,21 +3122,21 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>152</v>
@@ -3136,21 +3145,21 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>153</v>
@@ -3159,21 +3168,21 @@
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>154</v>
@@ -3182,21 +3191,21 @@
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>155</v>
@@ -3205,21 +3214,21 @@
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>156</v>
@@ -3228,228 +3237,228 @@
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>144</v>
@@ -3458,21 +3467,21 @@
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>145</v>
@@ -3481,21 +3490,21 @@
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>146</v>
@@ -3504,21 +3513,21 @@
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>147</v>
@@ -3527,21 +3536,21 @@
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>148</v>
@@ -3550,21 +3559,21 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>149</v>
@@ -3573,291 +3582,383 @@
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -1992,7 +1992,7 @@
         <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>94</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,136 +158,226 @@
     <t>nomeAggiunto</t>
   </si>
   <si>
+    <t>Richiedente</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,4</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>Codice Fiscale</t>
   </si>
   <si>
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita</t>
   </si>
   <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita</t>
   </si>
   <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita</t>
   </si>
   <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
     <t>Nazionalità</t>
   </si>
   <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
     <t>Nazionalità   - Descrizione</t>
   </si>
   <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
     <t>Stato Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza</t>
   </si>
   <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza</t>
   </si>
   <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
     <t>Indirizzo Residenza</t>
   </si>
   <si>
-    <t>indirizzoResidenza</t>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -446,69 +536,9 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
     <t>flag firmatario</t>
   </si>
   <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
     <t>Unito civilmente</t>
   </si>
   <si>
@@ -531,6 +561,18 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Tipo richiedente</t>
+  </si>
+  <si>
+    <t>tipoRichiedente</t>
+  </si>
+  <si>
+    <t>Tipo richiedente - Descrizione</t>
+  </si>
+  <si>
+    <t>descrizioneTipoRichiedente</t>
   </si>
 </sst>
 </file>
@@ -589,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1302,7 +1344,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>50</v>
@@ -1311,10 +1353,10 @@
         <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1322,7 +1364,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1331,13 +1373,13 @@
         <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
@@ -1345,22 +1387,22 @@
         <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
@@ -1368,7 +1410,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1377,13 +1419,13 @@
         <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -1391,7 +1433,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1400,13 +1442,13 @@
         <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
@@ -1414,7 +1456,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1423,13 +1465,13 @@
         <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
@@ -1437,22 +1479,22 @@
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
@@ -1460,7 +1502,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -1469,13 +1511,13 @@
         <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
@@ -1483,7 +1525,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -1492,13 +1534,13 @@
         <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1548,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -1515,13 +1557,13 @@
         <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
@@ -1529,7 +1571,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -1538,13 +1580,13 @@
         <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
@@ -1552,7 +1594,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -1561,13 +1603,13 @@
         <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43">
@@ -1575,22 +1617,22 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
@@ -1598,22 +1640,22 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
@@ -1621,22 +1663,22 @@
         <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
@@ -1644,22 +1686,22 @@
         <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47">
@@ -1667,7 +1709,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -1676,13 +1718,13 @@
         <v>50</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1690,7 +1732,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -1699,13 +1741,13 @@
         <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -1713,7 +1755,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -1722,13 +1764,13 @@
         <v>50</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1736,7 +1778,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -1745,13 +1787,13 @@
         <v>50</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
@@ -1759,27 +1801,27 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>93</v>
@@ -1788,59 +1830,59 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>20</v>
@@ -1848,19 +1890,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1913,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1936,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1959,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1982,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1963,19 +2005,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1986,19 +2028,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2009,22 +2051,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>20</v>
@@ -2032,19 +2074,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2055,22 +2097,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>20</v>
@@ -2078,22 +2120,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>20</v>
@@ -2101,19 +2143,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2166,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2189,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2212,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2235,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2258,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2281,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2304,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,1629 +2327,1629 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3918,19 +3960,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3941,24 +3983,1726 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E146" s="2" t="s">
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="B170" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,27 +158,30 @@
     <t>nomeAggiunto</t>
   </si>
   <si>
-    <t>Richiedente</t>
+    <t>Intestatario</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>evento.dichiarante</t>
+    <t>evento.intestatari[0]</t>
   </si>
   <si>
     <t>cognome</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,4</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
     <t>nome</t>
   </si>
   <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -191,102 +194,303 @@
     <t>dataNascita</t>
   </si>
   <si>
+    <t>Stato Nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità   - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato Residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Nascita Coniuge</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>Atto Nascita Unito civilmente</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
+  </si>
+  <si>
+    <t>Coniuge</t>
+  </si>
+  <si>
+    <t>evento.coniuge</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
     <t>Stato di nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
     <t>Provincia di nascita</t>
   </si>
   <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
     <t>Provincia di nascita - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
     <t>Comune di nascita</t>
   </si>
   <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
     <t>Nazionalita</t>
   </si>
   <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
     <t>Nazionalita - Descrizione</t>
   </si>
   <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
     <t>Stato di residenza</t>
   </si>
   <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
     <t>Stato di residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
     <t>Provincia di residenza</t>
   </si>
   <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Provincia di residenza - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Comune di residenza</t>
   </si>
   <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
     <t>Comune di residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
     <t>Indirizzo di residenza</t>
   </si>
   <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -299,246 +503,12 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
   </si>
   <si>
-    <t>Intestatario</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
-  </si>
-  <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
-  </si>
-  <si>
-    <t>Atto nascita intestatario</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Nascita Coniuge</t>
-  </si>
-  <si>
-    <t>evento.eventoCollegato</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
-  </si>
-  <si>
-    <t>Atto Nascita Unito civilmente</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
-  </si>
-  <si>
-    <t>Coniuge</t>
-  </si>
-  <si>
-    <t>evento.coniuge</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
     <t>Unito civilmente</t>
   </si>
   <si>
@@ -561,18 +531,6 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
-  </si>
-  <si>
-    <t>Tipo richiedente</t>
-  </si>
-  <si>
-    <t>tipoRichiedente</t>
-  </si>
-  <si>
-    <t>Tipo richiedente - Descrizione</t>
-  </si>
-  <si>
-    <t>descrizioneTipoRichiedente</t>
   </si>
 </sst>
 </file>
@@ -631,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1344,7 +1302,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>50</v>
@@ -1353,10 +1311,10 @@
         <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1364,7 +1322,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1373,13 +1331,13 @@
         <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1387,22 +1345,22 @@
         <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1410,7 +1368,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1419,13 +1377,13 @@
         <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1433,7 +1391,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1442,13 +1400,13 @@
         <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1456,7 +1414,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1465,13 +1423,13 @@
         <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -1479,22 +1437,22 @@
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1502,7 +1460,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -1511,13 +1469,13 @@
         <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1525,7 +1483,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -1534,13 +1492,13 @@
         <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1548,7 +1506,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -1557,13 +1515,13 @@
         <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -1571,7 +1529,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -1580,13 +1538,13 @@
         <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1594,7 +1552,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
@@ -1603,13 +1561,13 @@
         <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1617,22 +1575,22 @@
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -1640,22 +1598,22 @@
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1663,22 +1621,22 @@
         <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1686,22 +1644,22 @@
         <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -1709,7 +1667,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -1718,13 +1676,13 @@
         <v>50</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1732,7 +1690,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
@@ -1741,13 +1699,13 @@
         <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1755,7 +1713,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -1764,13 +1722,13 @@
         <v>50</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -1778,7 +1736,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
@@ -1787,13 +1745,13 @@
         <v>50</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1801,27 +1759,27 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>93</v>
@@ -1830,59 +1788,59 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>20</v>
@@ -1890,19 +1848,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1871,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1894,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1917,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1940,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2005,19 +1963,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2028,19 +1986,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2051,22 +2009,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>20</v>
@@ -2074,19 +2032,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2097,22 +2055,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>20</v>
@@ -2120,22 +2078,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>20</v>
@@ -2143,19 +2101,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2124,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2147,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2170,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2193,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2216,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2239,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2262,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2327,1629 +2285,1629 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3960,19 +3918,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3983,1726 +3941,24 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -360,6 +360,30 @@
   </si>
   <si>
     <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Madre</t>
@@ -631,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2353,16 +2377,16 @@
         <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2376,16 +2400,16 @@
         <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2399,7 +2423,7 @@
         <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -2408,7 +2432,7 @@
         <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2419,1353 +2443,1353 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E126" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3776,19 +3800,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3799,19 +3823,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3822,19 +3846,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3845,19 +3869,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3868,19 +3892,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3891,19 +3915,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3914,19 +3938,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3937,19 +3961,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3960,19 +3984,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3983,154 +4007,154 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>19</v>
@@ -4139,44 +4163,44 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>22</v>
@@ -4185,228 +4209,228 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>19</v>
@@ -4415,44 +4439,44 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>22</v>
@@ -4461,1248 +4485,1524 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E218" s="2" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E228" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Decreto Prefettizio</t>
+    <t>Decreto Prefettizio / Sentenza</t>
   </si>
   <si>
     <t>SI</t>
@@ -179,6 +179,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -233,13 +239,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -333,9 +339,6 @@
   </si>
   <si>
     <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
   </si>
   <si>
     <t>Nazionalità   - Descrizione</t>
@@ -655,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1414,7 +1417,7 @@
         <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
@@ -1506,7 +1509,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -1538,7 +1541,7 @@
         <v>66</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>52</v>
@@ -1561,7 +1564,7 @@
         <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>52</v>
@@ -1584,7 +1587,7 @@
         <v>70</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>52</v>
@@ -1630,7 +1633,7 @@
         <v>74</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>52</v>
@@ -1828,7 +1831,7 @@
         <v>91</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>50</v>
@@ -1891,45 +1894,45 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>20</v>
@@ -1937,19 +1940,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1963,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1986,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2009,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2032,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2055,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2075,22 +2078,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>20</v>
@@ -2098,7 +2101,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>105</v>
@@ -2107,10 +2110,10 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2121,7 +2124,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>106</v>
@@ -2130,10 +2133,10 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -2144,22 +2147,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>20</v>
@@ -2167,22 +2170,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>20</v>
@@ -2190,22 +2193,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>20</v>
@@ -2213,19 +2216,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2239,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2262,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2285,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2308,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2331,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2354,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2377,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2400,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2423,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2446,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2469,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2492,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2515,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2535,1353 +2538,1353 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3892,19 +3895,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3915,19 +3918,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3938,19 +3941,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3961,19 +3964,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3984,19 +3987,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4007,19 +4010,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4030,19 +4033,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4053,19 +4056,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4076,19 +4079,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4099,19 +4102,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4122,19 +4125,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4145,19 +4148,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4168,19 +4171,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4191,19 +4194,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4214,19 +4217,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4237,19 +4240,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4260,19 +4263,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4283,1612 +4286,1612 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E227" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="228">
@@ -5896,22 +5899,22 @@
         <v>184</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229">
@@ -5919,22 +5922,22 @@
         <v>184</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="230">
@@ -5942,22 +5945,22 @@
         <v>184</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231">
@@ -5965,22 +5968,22 @@
         <v>184</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232">
@@ -5988,21 +5991,159 @@
         <v>184</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
+      <c r="E238" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -658,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1854,7 +1860,7 @@
         <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>50</v>
@@ -1917,45 +1923,45 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>20</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2124,22 +2130,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>20</v>
@@ -2147,22 +2153,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>20</v>
@@ -2170,22 +2176,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>20</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -2216,22 +2222,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>20</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>112</v>
@@ -2317,10 +2323,10 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2331,7 +2337,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>113</v>
@@ -2340,10 +2346,10 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>114</v>
@@ -2363,10 +2369,10 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2377,7 +2383,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>115</v>
@@ -2386,10 +2392,10 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2400,7 +2406,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>116</v>
@@ -2409,10 +2415,10 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>117</v>
@@ -2432,10 +2438,10 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2584,1399 +2590,1399 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3987,19 +3993,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4010,19 +4016,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4033,19 +4039,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4056,19 +4062,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4079,19 +4085,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4102,19 +4108,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4125,19 +4131,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4148,19 +4154,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4171,19 +4177,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4194,19 +4200,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4217,19 +4223,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4240,19 +4246,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4263,19 +4269,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4286,19 +4292,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4309,19 +4315,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4332,19 +4338,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4355,19 +4361,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4378,295 +4384,295 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4677,19 +4683,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4700,19 +4706,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4723,19 +4729,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4746,186 +4752,186 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186">
@@ -4933,22 +4939,22 @@
         <v>181</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="187">
@@ -4956,22 +4962,22 @@
         <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="188">
@@ -4979,22 +4985,22 @@
         <v>181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="189">
@@ -5002,499 +5008,499 @@
         <v>181</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5505,19 +5511,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5528,19 +5534,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5551,19 +5557,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E213" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5574,19 +5580,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5597,553 +5603,691 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="E216" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="E218" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="E220" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="E221" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="E222" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="E228" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
+      <c r="E231" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
+      <c r="E232" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="E233" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E243" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -251,6 +251,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
+  </si>
+  <si>
     <t>Residenza non nota</t>
   </si>
   <si>
@@ -401,7 +407,7 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,2 &amp;&amp; evento.trascrizioneNascita.tipoRichiedente,!=,5</t>
   </si>
   <si>
     <t>Padre</t>
@@ -410,7 +416,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,1 &amp;&amp; evento.trascrizioneNascita.tipoRichiedente,!=,5</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -664,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -676,7 +682,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="90.06640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1883,7 +1889,7 @@
         <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>50</v>
@@ -1946,45 +1952,45 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>20</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2153,22 +2159,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>20</v>
@@ -2176,22 +2182,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>20</v>
@@ -2199,22 +2205,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>20</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
@@ -2245,22 +2251,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>20</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2314,16 +2320,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>82</v>
@@ -2337,16 +2343,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>84</v>
@@ -2360,16 +2366,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>86</v>
@@ -2383,16 +2389,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>88</v>
@@ -2406,16 +2412,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>90</v>
@@ -2429,16 +2435,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>92</v>
@@ -2452,16 +2458,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>94</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2498,7 +2504,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>121</v>
@@ -2507,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>122</v>
@@ -2521,7 +2527,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>123</v>
@@ -2530,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>124</v>
@@ -2544,7 +2550,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>125</v>
@@ -2553,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>126</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2590,7 +2596,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>97</v>
@@ -2599,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>98</v>
@@ -2613,16 +2619,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>100</v>
@@ -2636,1422 +2642,1422 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4062,19 +4068,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4085,19 +4091,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4108,19 +4114,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4131,19 +4137,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4154,19 +4160,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4177,19 +4183,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4200,19 +4206,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4223,19 +4229,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4246,19 +4252,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4269,19 +4275,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4292,19 +4298,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4315,19 +4321,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4338,19 +4344,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4361,19 +4367,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4384,19 +4390,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4407,19 +4413,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4430,19 +4436,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4453,19 +4459,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4476,295 +4482,295 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4775,19 +4781,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4798,19 +4804,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4821,209 +4827,209 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190">
@@ -5031,22 +5037,22 @@
         <v>183</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="191">
@@ -5054,22 +5060,22 @@
         <v>183</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="192">
@@ -5077,545 +5083,545 @@
         <v>183</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E215" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5626,19 +5632,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E216" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5649,19 +5655,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E217" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5672,19 +5678,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E218" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5695,599 +5701,714 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="E220" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="E221" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="E222" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="E228" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
+      <c r="E231" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
+      <c r="E232" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="E233" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="E234" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2" t="s">
+      <c r="E235" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="E236" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="E237" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="E238" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="E239" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
+      <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E248" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="202">
   <si>
     <t>Sezione</t>
   </si>
@@ -546,6 +546,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -670,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4534,7 +4540,7 @@
         <v>178</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>158</v>
@@ -4551,295 +4557,295 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4850,19 +4856,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4873,232 +4879,232 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E191" s="2" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193">
@@ -5106,22 +5112,22 @@
         <v>185</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="194">
@@ -5129,22 +5135,22 @@
         <v>185</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="195">
@@ -5152,568 +5158,568 @@
         <v>185</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E219" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5724,19 +5730,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5747,19 +5753,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5770,608 +5776,608 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="E222" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="E228" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
+      <c r="E231" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
+      <c r="E232" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="E233" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="E234" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2" t="s">
+      <c r="E235" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="E236" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="E237" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="E238" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="E239" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="2" t="s">
+      <c r="E240" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
+      <c r="E241" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2" t="s">
+      <c r="E242" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
+      <c r="E243" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
+      <c r="E244" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -6380,7 +6386,7 @@
         <v>29</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
@@ -6391,24 +6397,93 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="2" t="s">
+      <c r="C251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E249" s="2" t="s">
+      <c r="E251" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
+      <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -618,6 +618,24 @@
   </si>
   <si>
     <t>descrizioneTipoRichiedente</t>
+  </si>
+  <si>
+    <t>Atto Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.attoMatrimonio</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,3,4,5,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>Atto Unione Civile</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.attoUnioneCivile</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,5,7,8,9)</t>
   </si>
 </sst>
 </file>
@@ -676,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6487,6 +6505,558 @@
         <v>20</v>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -4719,7 +4719,7 @@
         <v>168</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>183</v>
@@ -4880,7 +4880,7 @@
         <v>180</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>183</v>
@@ -5018,7 +5018,7 @@
         <v>168</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>183</v>
@@ -5179,7 +5179,7 @@
         <v>180</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>183</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -694,14 +700,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.2421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -2623,16 +2629,16 @@
         <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2646,7 +2652,7 @@
         <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2655,7 +2661,7 @@
         <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2669,16 +2675,16 @@
         <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2689,1419 +2695,1419 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>140</v>
@@ -4115,7 +4121,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>141</v>
@@ -4124,7 +4130,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>142</v>
@@ -4138,7 +4144,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>143</v>
@@ -4147,7 +4153,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>144</v>
@@ -4161,7 +4167,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>145</v>
@@ -4170,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>146</v>
@@ -4184,16 +4190,16 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>148</v>
@@ -4207,7 +4213,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>149</v>
@@ -4216,7 +4222,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>150</v>
@@ -4230,7 +4236,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>151</v>
@@ -4239,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>152</v>
@@ -4253,7 +4259,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>153</v>
@@ -4262,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>154</v>
@@ -4276,19 +4282,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4299,19 +4305,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4322,16 +4328,16 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>161</v>
@@ -4345,7 +4351,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>162</v>
@@ -4354,7 +4360,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>163</v>
@@ -4368,7 +4374,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>164</v>
@@ -4377,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>165</v>
@@ -4391,7 +4397,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>166</v>
@@ -4400,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>167</v>
@@ -4414,7 +4420,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>168</v>
@@ -4423,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>169</v>
@@ -4437,7 +4443,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>170</v>
@@ -4446,10 +4452,10 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4460,19 +4466,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4483,19 +4489,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4506,19 +4512,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4529,7 +4535,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>176</v>
@@ -4538,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>177</v>
@@ -4552,7 +4558,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>178</v>
@@ -4561,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>179</v>
@@ -4575,16 +4581,16 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>181</v>
@@ -4598,39 +4604,39 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>161</v>
@@ -4639,12 +4645,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>162</v>
@@ -4653,7 +4659,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>163</v>
@@ -4662,12 +4668,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>164</v>
@@ -4676,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>165</v>
@@ -4685,12 +4691,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>166</v>
@@ -4699,7 +4705,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>167</v>
@@ -4708,21 +4714,21 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>169</v>
@@ -4731,58 +4737,58 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>173</v>
@@ -4791,44 +4797,44 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>176</v>
@@ -4837,7 +4843,7 @@
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>177</v>
@@ -4846,12 +4852,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>178</v>
@@ -4860,7 +4866,7 @@
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>179</v>
@@ -4869,12 +4875,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>180</v>
@@ -4883,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>181</v>
@@ -4892,24 +4898,24 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4920,16 +4926,16 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>161</v>
@@ -4938,12 +4944,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>162</v>
@@ -4952,7 +4958,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>163</v>
@@ -4961,12 +4967,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>164</v>
@@ -4975,7 +4981,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>165</v>
@@ -4984,12 +4990,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>166</v>
@@ -4998,7 +5004,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>167</v>
@@ -5007,21 +5013,21 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>169</v>
@@ -5030,58 +5036,58 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>173</v>
@@ -5090,44 +5096,44 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>176</v>
@@ -5136,7 +5142,7 @@
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>177</v>
@@ -5145,12 +5151,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>178</v>
@@ -5159,7 +5165,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>179</v>
@@ -5168,12 +5174,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>180</v>
@@ -5182,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>181</v>
@@ -5191,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196">
@@ -5199,614 +5205,614 @@
         <v>187</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5817,605 +5823,605 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="E228" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
+      <c r="E231" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="2" t="s">
+      <c r="E232" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
+      <c r="E233" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="E234" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2" t="s">
+      <c r="E235" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="E236" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="E237" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="E238" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="E239" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="2" t="s">
+      <c r="E240" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
+      <c r="E241" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2" t="s">
+      <c r="E242" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
+      <c r="E243" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
+      <c r="E244" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="2" t="s">
+      <c r="E245" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246" s="2" t="s">
+      <c r="E246" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="2" t="s">
+      <c r="E247" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>194</v>
@@ -6424,7 +6430,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>195</v>
@@ -6438,7 +6444,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>196</v>
@@ -6461,7 +6467,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>198</v>
@@ -6470,7 +6476,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>199</v>
@@ -6484,13 +6490,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>29</v>
@@ -6507,30 +6513,30 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>162</v>
@@ -6539,7 +6545,7 @@
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>163</v>
@@ -6548,12 +6554,12 @@
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>164</v>
@@ -6562,7 +6568,7 @@
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>165</v>
@@ -6571,12 +6577,12 @@
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>166</v>
@@ -6585,7 +6591,7 @@
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>167</v>
@@ -6594,12 +6600,12 @@
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>168</v>
@@ -6608,7 +6614,7 @@
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>169</v>
@@ -6617,12 +6623,12 @@
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>170</v>
@@ -6631,44 +6637,44 @@
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>173</v>
@@ -6677,44 +6683,44 @@
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>176</v>
@@ -6723,7 +6729,7 @@
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>177</v>
@@ -6732,12 +6738,12 @@
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>178</v>
@@ -6746,7 +6752,7 @@
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>179</v>
@@ -6755,12 +6761,12 @@
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>180</v>
@@ -6769,7 +6775,7 @@
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>181</v>
@@ -6778,35 +6784,35 @@
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265" s="2" t="s">
+      <c r="E265" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>162</v>
@@ -6815,7 +6821,7 @@
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>163</v>
@@ -6824,12 +6830,12 @@
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>164</v>
@@ -6838,7 +6844,7 @@
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>165</v>
@@ -6847,12 +6853,12 @@
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>166</v>
@@ -6861,7 +6867,7 @@
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>167</v>
@@ -6870,12 +6876,12 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>168</v>
@@ -6884,7 +6890,7 @@
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>169</v>
@@ -6893,12 +6899,12 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>170</v>
@@ -6907,44 +6913,44 @@
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>173</v>
@@ -6953,44 +6959,44 @@
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>176</v>
@@ -6999,7 +7005,7 @@
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>177</v>
@@ -7008,12 +7014,12 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>178</v>
@@ -7022,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>179</v>
@@ -7031,12 +7037,12 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>180</v>
@@ -7045,7 +7051,7 @@
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>181</v>
@@ -7054,7 +7060,30 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
         <v>207</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,12 +399,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -700,14 +694,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.2421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -2629,16 +2623,16 @@
         <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2652,7 +2646,7 @@
         <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2661,7 +2655,7 @@
         <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2675,16 +2669,16 @@
         <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2695,1419 +2689,1419 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>140</v>
@@ -4121,7 +4115,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>141</v>
@@ -4130,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>142</v>
@@ -4144,7 +4138,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>143</v>
@@ -4153,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>144</v>
@@ -4167,7 +4161,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>145</v>
@@ -4176,7 +4170,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>146</v>
@@ -4190,16 +4184,16 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>148</v>
@@ -4213,7 +4207,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>149</v>
@@ -4222,7 +4216,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>150</v>
@@ -4236,7 +4230,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>151</v>
@@ -4245,7 +4239,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>152</v>
@@ -4259,7 +4253,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>153</v>
@@ -4268,7 +4262,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>154</v>
@@ -4282,19 +4276,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4305,19 +4299,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4328,16 +4322,16 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>161</v>
@@ -4351,7 +4345,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>162</v>
@@ -4360,7 +4354,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>163</v>
@@ -4374,7 +4368,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>164</v>
@@ -4383,7 +4377,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>165</v>
@@ -4397,7 +4391,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>166</v>
@@ -4406,7 +4400,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>167</v>
@@ -4420,7 +4414,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>168</v>
@@ -4429,7 +4423,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>169</v>
@@ -4443,7 +4437,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>170</v>
@@ -4452,10 +4446,10 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4466,19 +4460,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4489,19 +4483,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4512,19 +4506,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4535,7 +4529,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>176</v>
@@ -4544,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>177</v>
@@ -4558,7 +4552,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>178</v>
@@ -4567,7 +4561,7 @@
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>179</v>
@@ -4581,16 +4575,16 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>181</v>
@@ -4604,39 +4598,39 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>161</v>
@@ -4645,12 +4639,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>162</v>
@@ -4659,7 +4653,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>163</v>
@@ -4668,12 +4662,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>164</v>
@@ -4682,7 +4676,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>165</v>
@@ -4691,12 +4685,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>166</v>
@@ -4705,7 +4699,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>167</v>
@@ -4714,21 +4708,21 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>169</v>
@@ -4737,58 +4731,58 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>173</v>
@@ -4797,44 +4791,44 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>176</v>
@@ -4843,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>177</v>
@@ -4852,12 +4846,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>178</v>
@@ -4866,7 +4860,7 @@
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>179</v>
@@ -4875,12 +4869,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>180</v>
@@ -4889,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>181</v>
@@ -4898,24 +4892,24 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4926,16 +4920,16 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>161</v>
@@ -4944,12 +4938,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>162</v>
@@ -4958,7 +4952,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>163</v>
@@ -4967,12 +4961,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>164</v>
@@ -4981,7 +4975,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>165</v>
@@ -4990,12 +4984,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>166</v>
@@ -5004,7 +4998,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>167</v>
@@ -5013,21 +5007,21 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>169</v>
@@ -5036,58 +5030,58 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>173</v>
@@ -5096,44 +5090,44 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>176</v>
@@ -5142,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>177</v>
@@ -5151,12 +5145,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>178</v>
@@ -5165,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>179</v>
@@ -5174,12 +5168,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>180</v>
@@ -5188,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>181</v>
@@ -5197,7 +5191,7 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196">
@@ -5205,614 +5199,614 @@
         <v>187</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5823,605 +5817,605 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C248" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>194</v>
@@ -6430,7 +6424,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>195</v>
@@ -6444,7 +6438,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>196</v>
@@ -6467,7 +6461,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>198</v>
@@ -6476,7 +6470,7 @@
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>199</v>
@@ -6490,13 +6484,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>29</v>
@@ -6513,30 +6507,30 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>162</v>
@@ -6545,7 +6539,7 @@
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>163</v>
@@ -6554,12 +6548,12 @@
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>164</v>
@@ -6568,7 +6562,7 @@
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>165</v>
@@ -6577,12 +6571,12 @@
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>166</v>
@@ -6591,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>167</v>
@@ -6600,12 +6594,12 @@
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>168</v>
@@ -6614,7 +6608,7 @@
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>169</v>
@@ -6623,12 +6617,12 @@
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>170</v>
@@ -6637,44 +6631,44 @@
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>173</v>
@@ -6683,44 +6677,44 @@
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>176</v>
@@ -6729,7 +6723,7 @@
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>177</v>
@@ -6738,12 +6732,12 @@
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>178</v>
@@ -6752,7 +6746,7 @@
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>179</v>
@@ -6761,12 +6755,12 @@
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>180</v>
@@ -6775,7 +6769,7 @@
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>181</v>
@@ -6784,35 +6778,35 @@
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>162</v>
@@ -6821,7 +6815,7 @@
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>163</v>
@@ -6830,12 +6824,12 @@
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>164</v>
@@ -6844,7 +6838,7 @@
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>165</v>
@@ -6853,12 +6847,12 @@
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>166</v>
@@ -6867,7 +6861,7 @@
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>167</v>
@@ -6876,12 +6870,12 @@
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>168</v>
@@ -6890,7 +6884,7 @@
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>169</v>
@@ -6899,12 +6893,12 @@
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>170</v>
@@ -6913,44 +6907,44 @@
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>173</v>
@@ -6959,44 +6953,44 @@
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>176</v>
@@ -7005,7 +6999,7 @@
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>177</v>
@@ -7014,12 +7008,12 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>178</v>
@@ -7028,7 +7022,7 @@
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>179</v>
@@ -7037,12 +7031,12 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>180</v>
@@ -7051,7 +7045,7 @@
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>181</v>
@@ -7060,30 +7054,7 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -700,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1505,7 +1517,7 @@
         <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>50</v>
@@ -1528,7 +1540,7 @@
         <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>50</v>
@@ -1574,7 +1586,7 @@
         <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>50</v>
@@ -1597,7 +1609,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>50</v>
@@ -1606,7 +1618,7 @@
         <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>52</v>
@@ -1675,7 +1687,7 @@
         <v>74</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>52</v>
@@ -1698,7 +1710,7 @@
         <v>76</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>52</v>
@@ -1721,7 +1733,7 @@
         <v>78</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>52</v>
@@ -1942,7 +1954,7 @@
         <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>50</v>
@@ -1965,7 +1977,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>50</v>
@@ -2005,68 +2017,68 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>20</v>
@@ -2074,19 +2086,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2109,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2132,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2155,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2178,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2201,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2212,22 +2224,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>20</v>
@@ -2235,19 +2247,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2258,22 +2270,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>20</v>
@@ -2281,22 +2293,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>20</v>
@@ -2304,22 +2316,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>20</v>
@@ -2327,19 +2339,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2350,22 +2362,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>20</v>
@@ -2373,22 +2385,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>20</v>
@@ -2396,19 +2408,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2431,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2454,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2465,7 +2477,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>118</v>
@@ -2474,10 +2486,10 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2488,7 +2500,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>119</v>
@@ -2497,10 +2509,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2511,7 +2523,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>120</v>
@@ -2520,10 +2532,10 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2534,7 +2546,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>121</v>
@@ -2543,10 +2555,10 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2569,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2592,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2615,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2638,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2661,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2684,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2707,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2718,1413 +2730,1413 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4133,21 +4145,21 @@
         <v>139</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4156,21 +4168,21 @@
         <v>139</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4179,44 +4191,44 @@
         <v>139</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
@@ -4225,21 +4237,21 @@
         <v>139</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
@@ -4248,21 +4260,21 @@
         <v>139</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
@@ -4271,30 +4283,30 @@
         <v>139</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4305,19 +4317,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4328,19 +4340,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4351,19 +4363,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4374,19 +4386,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4397,19 +4409,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4420,19 +4432,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4443,19 +4455,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4466,19 +4478,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4489,19 +4501,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4512,19 +4524,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4535,19 +4547,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4558,19 +4570,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4581,19 +4593,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4604,19 +4616,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4627,2316 +4639,2316 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E197" s="2" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E249" s="2" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C264" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E264" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>19</v>
@@ -6945,44 +6957,44 @@
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>22</v>
@@ -6991,99 +7003,375 @@
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E277" s="2" t="s">
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F277" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>209</v>
+      <c r="F287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="219">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,9 @@
     <t>192.3</t>
   </si>
   <si>
+    <t>193.1</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
     <t>idAnsc</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -603,6 +609,15 @@
   </si>
   <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.autoritaMittente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRichiedente,in,(1,2,3,4,5)</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -712,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -804,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -820,434 +835,434 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1258,1019 +1273,1019 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>112</v>
@@ -2279,44 +2294,44 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>114</v>
@@ -2325,21 +2340,21 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>115</v>
@@ -2348,21 +2363,21 @@
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>116</v>
@@ -2371,136 +2386,136 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>119</v>
@@ -2509,21 +2524,21 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>120</v>
@@ -2532,21 +2547,21 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>121</v>
@@ -2555,21 +2570,21 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>122</v>
@@ -2578,21 +2593,21 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>123</v>
@@ -2601,21 +2616,21 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>124</v>
@@ -2624,21 +2639,21 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>125</v>
@@ -2647,1870 +2662,1870 @@
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>161</v>
@@ -4519,58 +4534,58 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E167" s="2" t="s">
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>168</v>
@@ -4579,7 +4594,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>169</v>
@@ -4588,12 +4603,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>170</v>
@@ -4602,7 +4617,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>171</v>
@@ -4611,12 +4626,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>172</v>
@@ -4625,7 +4640,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>173</v>
@@ -4634,12 +4649,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>174</v>
@@ -4648,7 +4663,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>175</v>
@@ -4657,12 +4672,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>176</v>
@@ -4671,90 +4686,90 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>182</v>
@@ -4763,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>183</v>
@@ -4772,12 +4787,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>184</v>
@@ -4786,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>185</v>
@@ -4795,21 +4810,21 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>187</v>
@@ -4818,58 +4833,58 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>168</v>
@@ -4878,7 +4893,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>169</v>
@@ -4887,12 +4902,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>170</v>
@@ -4901,7 +4916,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>171</v>
@@ -4910,12 +4925,12 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>172</v>
@@ -4924,7 +4939,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>173</v>
@@ -4933,21 +4948,21 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>175</v>
@@ -4956,58 +4971,58 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>179</v>
@@ -5016,44 +5031,44 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>182</v>
@@ -5062,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>183</v>
@@ -5071,12 +5086,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>184</v>
@@ -5085,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>185</v>
@@ -5094,12 +5109,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>186</v>
@@ -5108,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>187</v>
@@ -5117,24 +5132,24 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5145,30 +5160,30 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="E193" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>168</v>
@@ -5177,7 +5192,7 @@
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>169</v>
@@ -5186,12 +5201,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>170</v>
@@ -5200,7 +5215,7 @@
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>171</v>
@@ -5209,12 +5224,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>172</v>
@@ -5223,7 +5238,7 @@
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>173</v>
@@ -5232,21 +5247,21 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>175</v>
@@ -5255,58 +5270,58 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>179</v>
@@ -5315,44 +5330,44 @@
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>182</v>
@@ -5361,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>183</v>
@@ -5370,12 +5385,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>184</v>
@@ -5384,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>185</v>
@@ -5393,12 +5408,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>186</v>
@@ -5407,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>187</v>
@@ -5416,7 +5431,7 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205">
@@ -5424,660 +5439,660 @@
         <v>193</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E233" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
@@ -6088,1290 +6103,1428 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="E234" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="E235" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2" t="s">
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="E236" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="E238" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="E239" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="E240" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D240" s="2" t="s">
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="E241" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="E242" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2" t="s">
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="E243" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="E244" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="2" t="s">
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="E245" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="2" t="s">
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="E246" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246" s="2" t="s">
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247" s="2" t="s">
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="E248" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="2" t="s">
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="E249" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="2" t="s">
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="E250" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="2" t="s">
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="E251" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="2" t="s">
+      <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="E252" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="2" t="s">
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="E253" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D253" s="2" t="s">
+      <c r="F253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="E254" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D254" s="2" t="s">
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="E255" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="2" t="s">
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="E256" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256" s="2" t="s">
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="E257" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="2" t="s">
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="E258" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="2" t="s">
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="E259" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="2" t="s">
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="2" t="s">
+      <c r="E260" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E262" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E289" s="2" t="s">
+      <c r="C294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F289" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G289" s="2" t="s">
-        <v>213</v>
+      <c r="F294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
